--- a/BOM/20210901_BOM_Capacitive chessboard.xlsx
+++ b/BOM/20210901_BOM_Capacitive chessboard.xlsx
@@ -870,11 +870,11 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.24"/>
@@ -1033,7 +1033,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>31</v>

--- a/BOM/20210901_BOM_Capacitive chessboard.xlsx
+++ b/BOM/20210901_BOM_Capacitive chessboard.xlsx
@@ -103,7 +103,7 @@
     <t xml:space="preserve">Amphenol ICC / FCI </t>
   </si>
   <si>
-    <t xml:space="preserve">0118193-0001LF</t>
+    <t xml:space="preserve">10118193-0001LF</t>
   </si>
   <si>
     <t xml:space="preserve">FCI Right Angle Surface Mount Mount Female USB Connector; 100 V ac; 1.8A</t>
@@ -871,10 +871,10 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.24"/>
